--- a/Employee.xlsx
+++ b/Employee.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\dyusjhf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165060DA-71DE-4176-A909-B007A4313C0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55157B15-5708-4A60-8C62-9CCA6017D798}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CBB9594D-43BC-49DB-A51C-F7F5366FB98A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>EmpID</t>
   </si>
@@ -79,6 +79,21 @@
   </si>
   <si>
     <t>Vũng Tàu</t>
+  </si>
+  <si>
+    <t>EMP05</t>
+  </si>
+  <si>
+    <t>đasadsd</t>
+  </si>
+  <si>
+    <t>sadsadas</t>
+  </si>
+  <si>
+    <t>EMP06</t>
+  </si>
+  <si>
+    <t>EMP07</t>
   </si>
 </sst>
 </file>
@@ -447,10 +462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33C1FCC2-AA58-4FD0-A192-835F37969EEE}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -513,6 +528,27 @@
         <v>14</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
